--- a/stata/Resultados Finais do Modelo.xlsx
+++ b/stata/Resultados Finais do Modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC7114-3743-4CE8-ABA2-8DCA26973428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82794DD2-880E-4BEC-ACB9-87A3165499A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
   </bookViews>
   <sheets>
     <sheet name="t1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
   <si>
     <t>Variable</t>
   </si>
@@ -475,15 +475,45 @@
   <si>
     <t>Variáveis</t>
   </si>
+  <si>
+    <t>Equação</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Prob &gt; F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    F( 1, 39) =     11.112</t>
+  </si>
+  <si>
+    <t>Nesse caso não houve a presença de autocorrelação</t>
+  </si>
+  <si>
+    <t>chi2</t>
+  </si>
+  <si>
+    <t>Prob &gt; chi2</t>
+  </si>
+  <si>
+    <t>chi2(40) = 2747.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +536,19 @@
     </font>
     <font>
       <sz val="5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -560,19 +603,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,14 +624,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +727,8 @@
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>235503</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148912</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>92227</xdr:rowOff>
     </xdr:to>
@@ -765,15 +820,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180502</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28445</xdr:rowOff>
+      <xdr:colOff>323377</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -796,7 +851,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3105150" y="895350"/>
+          <a:off x="3248025" y="95250"/>
           <a:ext cx="3780952" cy="1038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -808,16 +863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>608838</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>170786</xdr:rowOff>
+      <xdr:colOff>246888</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -840,7 +895,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="2857500"/>
+          <a:off x="3295650" y="3076575"/>
           <a:ext cx="6095238" cy="5314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -852,16 +907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>141543</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56809</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>179643</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -884,8 +939,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="0"/>
-          <a:ext cx="10657143" cy="2723809"/>
+          <a:off x="3248025" y="1068911"/>
+          <a:ext cx="7294818" cy="1864448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,15 +957,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>274913</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28215</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293963</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -933,7 +988,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="390525"/>
+          <a:off x="123825" y="47625"/>
           <a:ext cx="10495238" cy="2876190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1442,7 +1497,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,189 +1510,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>28.75375</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3.8921152000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>15.75</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>38.533329999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>45.901200000000003</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.1877880000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>43.307690000000001</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>49.266669999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.375</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.48488110000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>52900000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1.22</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>804536</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>900000000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3.4437500000000001</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1.578646</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>18.625</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>9.1800180000000005</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>0.54374999999999996</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>0.49886229999999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.9375</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.24244060000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>86.328130000000002</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>35.543810000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>20</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.375</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.48488110000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1658,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C3A037-A1AB-4B7C-913D-B61FB092479A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1671,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5EFBD4-5B0B-4519-9C07-EC80BE795915}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -1686,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5354CA-DDAA-4047-8E79-CE8CBF459EF2}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:L22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,302 +1996,302 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="H14" s="5" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="H14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.99007000000000001</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1.899</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>2.877E-2</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.99007000000000001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>1.899</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>2.877E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.99048000000000003</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>2.1480000000000001</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1.8</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>3.5889999999999998E-2</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.99536000000000002</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>1.0469999999999999</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>0.109</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>0.45668999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.37797999999999998</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>140.33099999999999</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>11.641</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>0.98707</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>2.9180000000000001</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>2.5209999999999999</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>5.8500000000000002E-3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.98182000000000003</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>4.101</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>3.323</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.98182000000000003</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>4.101</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>3.323</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.92069000000000001</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>17.893999999999998</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>6.7919999999999998</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.92069000000000001</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>17.893999999999998</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>6.7919999999999998</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.94938</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>11.420999999999999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>5.7350000000000003</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.98946000000000001</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>2.3769999999999998</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>2.0390000000000001</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>2.0729999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="9"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="9"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="9"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G33" s="9"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G34" s="9"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G35" s="9"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2252,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155B470C-05EC-430E-8C1A-993AE424F2CE}">
   <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,130 +2320,130 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.1482</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.1195</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.1046</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.90639999999999998</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.2969</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.57640000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.33929999999999999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>13.93</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.63270000000000004</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>35.24</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.1404</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.1031</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>22.63</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2406,314 +2461,313 @@
   <dimension ref="A2:K15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A2" sqref="A2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="7"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="7"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="7"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2728,16 +2782,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72ACB85-E398-49F4-B5F8-2BF9961BED64}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,13 +2801,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
@@ -2760,122 +2815,117 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>62</v>
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>64</v>
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>66</v>
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>68</v>
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>70</v>
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>72</v>
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>74</v>
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>76</v>
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2885,32 +2935,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B6FCEC-3DFF-4358-9C19-0E1B9292DEE2}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A9" sqref="A9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2921,14 +3001,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60756F8D-C6C1-4478-AE9D-E4AD2607C302}">
-  <dimension ref="A1"/>
+  <dimension ref="A18:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2938,7 +3044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1935DF16-2A28-482D-8AAC-9988DD6BBFFF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2951,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0174F6-E2FC-463D-8CF6-DD8960E2CB47}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/stata/Resultados Finais do Modelo.xlsx
+++ b/stata/Resultados Finais do Modelo.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82794DD2-880E-4BEC-ACB9-87A3165499A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2A28E-968B-4459-8A14-ED87372F81A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
   </bookViews>
   <sheets>
-    <sheet name="t1" sheetId="1" r:id="rId1"/>
-    <sheet name="t2" sheetId="2" r:id="rId2"/>
-    <sheet name="t3" sheetId="3" r:id="rId3"/>
-    <sheet name="t4" sheetId="4" r:id="rId4"/>
-    <sheet name="t5" sheetId="5" r:id="rId5"/>
-    <sheet name="t6" sheetId="6" r:id="rId6"/>
-    <sheet name="t7" sheetId="7" r:id="rId7"/>
-    <sheet name="t8" sheetId="8" r:id="rId8"/>
-    <sheet name="t9" sheetId="9" r:id="rId9"/>
-    <sheet name="t10" sheetId="10" r:id="rId10"/>
-    <sheet name="t11" sheetId="11" r:id="rId11"/>
+    <sheet name="Modelo de Regressao Robust" sheetId="13" r:id="rId1"/>
+    <sheet name="Modelo de Regressao nor" sheetId="14" r:id="rId2"/>
+    <sheet name="t1" sheetId="1" r:id="rId3"/>
+    <sheet name="t2" sheetId="2" r:id="rId4"/>
+    <sheet name="t3" sheetId="3" r:id="rId5"/>
+    <sheet name="t4" sheetId="4" r:id="rId6"/>
+    <sheet name="t5" sheetId="5" r:id="rId7"/>
+    <sheet name="t6" sheetId="6" r:id="rId8"/>
+    <sheet name="t7" sheetId="7" r:id="rId9"/>
+    <sheet name="t8" sheetId="8" r:id="rId10"/>
+    <sheet name="t9" sheetId="9" r:id="rId11"/>
+    <sheet name="t10" sheetId="10" r:id="rId12"/>
+    <sheet name="t11" sheetId="11" r:id="rId13"/>
+    <sheet name="Modelo de Regressao" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="165">
   <si>
     <t>Variable</t>
   </si>
@@ -505,6 +508,60 @@
   <si>
     <t xml:space="preserve">    0.0000</t>
   </si>
+  <si>
+    <t>_cons</t>
+  </si>
+  <si>
+    <t>sigma_u</t>
+  </si>
+  <si>
+    <t>sigma_e</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>R-sq: overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-sq:between </t>
+  </si>
+  <si>
+    <t>R-sq:within</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corr(u_i, Xb) </t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Erro Padrão Robusto</t>
+  </si>
+  <si>
+    <t>Estat. t</t>
+  </si>
+  <si>
+    <t>Intervalo de Confiança 95%</t>
+  </si>
+  <si>
+    <t>Modelo de Regressão - fixo Robust</t>
+  </si>
+  <si>
+    <t>-1,241951</t>
+  </si>
+  <si>
+    <t>3,8029615</t>
+  </si>
+  <si>
+    <t>2,1400393</t>
+  </si>
+  <si>
+    <t>p-valor</t>
+  </si>
+  <si>
+    <t>Estat. T</t>
+  </si>
 </sst>
 </file>
 
@@ -513,7 +570,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,13 +610,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -603,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,6 +703,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,16 +727,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -669,6 +799,264 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2839624" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA651772-A455-4E94-8C34-771657769617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5403850" y="2686050"/>
+          <a:ext cx="2839624" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Quando</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> roda o modelo com robust os valores </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>não se mostraram significativos. Nessa caso, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>vamos rodar sem o método robust.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>341943</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653B4F00-18EB-4758-9429-7A15ECED166A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7657143" cy="5914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>284800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5F9BFB-1F94-44A9-98B0-695C1F21C424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7600000" cy="5790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2839624" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297E1760-5CC0-4180-B140-E2E293F5C657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2682875"/>
+          <a:ext cx="2839624" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Quando</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> roda o modelo com robust os valores </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>não se mostraram significativos. Nessa caso, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>vamos rodar sem o método robust.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -717,7 +1105,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -766,7 +1154,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -815,7 +1203,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -952,7 +1340,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1001,7 +1389,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1050,7 +1438,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1088,104 +1476,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="11257143" cy="6600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>341943</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>8786</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653B4F00-18EB-4758-9429-7A15ECED166A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7657143" cy="5914286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>284800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>75476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5F9BFB-1F94-44A9-98B0-695C1F21C424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7600000" cy="5790476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1493,224 +1783,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E8D6F4-8F6A-4532-A1D5-65B7127728C7}">
-  <dimension ref="A2:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D8B2B8-F1A2-4C2B-B6F9-25C48E0508A1}">
+  <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3">
-        <v>28.75375</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.8921152000000001</v>
-      </c>
-      <c r="D3" s="3">
-        <v>15.75</v>
-      </c>
-      <c r="E3" s="5">
-        <v>38.533329999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="32">
+        <v>1E-3</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="3">
-        <v>45.901200000000003</v>
+      <c r="B4" s="18">
+        <v>0.50235810000000003</v>
       </c>
       <c r="C4" s="3">
-        <v>1.1877880000000001</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43.307690000000001</v>
+        <v>0.293931</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1.71</v>
       </c>
       <c r="E4" s="5">
-        <v>49.266669999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-9.2173599999999994E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0968899999999999</v>
+      </c>
+      <c r="H4" t="b">
+        <f>E4&lt;$H$3</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>E4&lt;$I$3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f>E4&lt;$J$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.375</v>
+        <v>-0.2545925</v>
       </c>
       <c r="C5" s="3">
-        <v>0.48488110000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
+        <v>0.30251230000000001</v>
+      </c>
+      <c r="D5" s="28">
+        <v>-0.84</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>84</v>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.86648139999999996</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.35729630000000001</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" ref="H5:H12" si="0">E5&lt;$H$3</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" ref="I5:I12" si="1">E5&lt;$I$3</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" ref="J5:J12" si="2">E5&lt;$J$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="3">
-        <v>52900000</v>
+        <v>0.30977080000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="D6" s="3">
-        <v>804536</v>
+        <v>0.95150500000000005</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.33</v>
       </c>
       <c r="E6" s="5">
-        <v>900000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+        <v>0.746</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1.61483</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.2343709999999999</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>3.4437500000000001</v>
+        <v>0.1737882</v>
       </c>
       <c r="C7" s="3">
-        <v>1.578646</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
+        <v>0.34210429999999997</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.51</v>
       </c>
       <c r="E7" s="5">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.51818299999999995</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.86575950000000002</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.13625999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.1190176</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.1044757</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.37699579999999999</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>18.625</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9.1800180000000005</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.54374999999999996</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.49886229999999998</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
+      <c r="B9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0185299999999999</v>
+      </c>
+      <c r="D9" s="28">
+        <v>-1.22</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+        <v>0.23</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-3.3021229999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.81822159999999999</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>0.9375</v>
+        <v>-3.7510700000000001E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>0.24244060000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
+        <v>0.60079680000000002</v>
+      </c>
+      <c r="D10" s="28">
+        <v>-0.06</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1.252737</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.177716</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="3">
-        <v>86.328130000000002</v>
+        <v>-0.22239600000000001</v>
       </c>
       <c r="C11" s="3">
-        <v>35.543810000000001</v>
-      </c>
-      <c r="D11" s="3">
-        <v>20</v>
+        <v>0.18228800000000001</v>
+      </c>
+      <c r="D11" s="28">
+        <v>-1.22</v>
       </c>
       <c r="E11" s="5">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.59110830000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.14631630000000001</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B12" s="3">
-        <v>0.375</v>
+        <v>0.16653380000000001</v>
       </c>
       <c r="C12" s="3">
-        <v>0.48488110000000001</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
+        <v>18.966200000000001</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.01</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-38.196219999999997</v>
+      </c>
+      <c r="G12" s="3">
+        <v>38.529290000000003</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-0.46139999999999998</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.75949480999999996</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C3A037-A1AB-4B7C-913D-B61FB092479A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1935DF16-2A28-482D-8AAC-9988DD6BBFFF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
@@ -1723,6 +2287,32 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0174F6-E2FC-463D-8CF6-DD8960E2CB47}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C3A037-A1AB-4B7C-913D-B61FB092479A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5EFBD4-5B0B-4519-9C07-EC80BE795915}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1737,7 +2327,1092 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B927E1B9-CB6D-4CFE-846E-453372E2D8A1}">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.50235810000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.293931</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1.71</v>
+      </c>
+      <c r="E4" s="24">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-9.2173599999999994E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.0968899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-0.2545925</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.30251230000000001</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-0.84</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-0.86648139999999996</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.35729630000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.30977080000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.95150500000000005</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.746</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-1.61483</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2.2343709999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1737882</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.34210429999999997</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.51818299999999995</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.86575950000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.13625999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.1190176</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.1044757</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.37699579999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0185299999999999</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-1.22</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-3.3021229999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.81822159999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-3.7510700000000001E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.60079680000000002</v>
+      </c>
+      <c r="D10" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-1.252737</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.177716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.22239600000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.18228800000000001</v>
+      </c>
+      <c r="D11" s="21">
+        <v>-1.22</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-0.59110830000000003</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.14631630000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.16653380000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18.966200000000001</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-3819622</v>
+      </c>
+      <c r="G12" s="5">
+        <v>38.529290000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-0.46139999999999998</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.75949480999999996</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396510AC-0733-4B67-AC27-06EAEE37A3B2}">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32">
+        <v>1E-3</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.50235810000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.293931</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1.71</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-9.2173599999999994E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0968899999999999</v>
+      </c>
+      <c r="H4" t="b">
+        <f>E4&lt;$H$3</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>E4&lt;$I$3</f>
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <f>E4&lt;$J$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-0.2545925</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.30251230000000001</v>
+      </c>
+      <c r="D5" s="28">
+        <v>-0.84</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.86648139999999996</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.35729630000000001</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" ref="H5:H12" si="0">E5&lt;$H$3</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" ref="I5:I12" si="1">E5&lt;$I$3</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" ref="J5:J12" si="2">E5&lt;$J$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.30977080000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.95150500000000005</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1.61483</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.2343709999999999</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1737882</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.34210429999999997</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.51</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.51818299999999995</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.86575950000000002</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.13625999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.1190176</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.1044757</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.37699579999999999</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0185299999999999</v>
+      </c>
+      <c r="D9" s="28">
+        <v>-1.22</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-3.3021229999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.81822159999999999</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-3.7510700000000001E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.60079680000000002</v>
+      </c>
+      <c r="D10" s="28">
+        <v>-0.06</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1.252737</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.177716</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.22239600000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.18228800000000001</v>
+      </c>
+      <c r="D11" s="28">
+        <v>-1.22</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.59110830000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.14631630000000001</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.16653380000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18.966200000000001</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-38.196219999999997</v>
+      </c>
+      <c r="G12" s="3">
+        <v>38.529290000000003</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-0.46139999999999998</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.75949480999999996</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E8D6F4-8F6A-4532-A1D5-65B7127728C7}">
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3">
+        <v>28.75375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.8921152000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15.75</v>
+      </c>
+      <c r="E3" s="5">
+        <v>38.533329999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45.901200000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.1877880000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43.307690000000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>49.266669999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.48488110000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="18">
+        <v>16.85013</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.244326</v>
+      </c>
+      <c r="D6" s="18">
+        <v>13.59802</v>
+      </c>
+      <c r="E6" s="19">
+        <v>20.61806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.4437500000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.578646</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>18.625</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.1800180000000005</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.49886229999999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.24244060000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>86.328130000000002</v>
+      </c>
+      <c r="C11" s="3">
+        <v>35.543810000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.48488110000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5354CA-DDAA-4047-8E79-CE8CBF459EF2}">
   <dimension ref="A1:M35"/>
   <sheetViews>
@@ -1996,20 +3671,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="H14" s="10" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2236,13 +3911,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G29" s="4"/>
@@ -2303,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155B470C-05EC-430E-8C1A-993AE424F2CE}">
   <dimension ref="A3:E10"/>
   <sheetViews>
@@ -2320,13 +3995,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2456,12 +4131,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CAA9C2-5969-4AEB-824C-6554D5B3A06C}">
   <dimension ref="A2:K15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,295 +4154,295 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="15"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="15"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2787,21 +4462,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72ACB85-E398-49F4-B5F8-2BF9961BED64}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2815,7 +4490,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2826,7 +4501,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2837,7 +4512,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2848,7 +4523,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2859,7 +4534,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2870,7 +4545,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2881,7 +4556,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2892,7 +4567,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2903,7 +4578,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2914,18 +4589,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2933,7 +4603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B6FCEC-3DFF-4358-9C19-0E1B9292DEE2}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2999,7 +4669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60756F8D-C6C1-4478-AE9D-E4AD2607C302}">
   <dimension ref="A18:C19"/>
   <sheetViews>
@@ -3038,30 +4708,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1935DF16-2A28-482D-8AAC-9988DD6BBFFF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0174F6-E2FC-463D-8CF6-DD8960E2CB47}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>